--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2825876666666667</v>
+        <v>0.03867933333333334</v>
       </c>
       <c r="H2">
-        <v>0.847763</v>
+        <v>0.116038</v>
       </c>
       <c r="I2">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="J2">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N2">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q2">
-        <v>63.3652272495091</v>
+        <v>0.5167330983128889</v>
       </c>
       <c r="R2">
-        <v>570.2870452455819</v>
+        <v>4.650597884816</v>
       </c>
       <c r="S2">
-        <v>0.4234511812646402</v>
+        <v>0.1341424701820277</v>
       </c>
       <c r="T2">
-        <v>0.4234511812646403</v>
+        <v>0.1341424701820276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2825876666666667</v>
+        <v>0.03867933333333334</v>
       </c>
       <c r="H3">
-        <v>0.847763</v>
+        <v>0.116038</v>
       </c>
       <c r="I3">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="J3">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q3">
-        <v>0.2892862189132223</v>
+        <v>0.03959620114377778</v>
       </c>
       <c r="R3">
-        <v>2.603575970219</v>
+        <v>0.356365810294</v>
       </c>
       <c r="S3">
-        <v>0.001933214736846608</v>
+        <v>0.01027906330868431</v>
       </c>
       <c r="T3">
-        <v>0.001933214736846608</v>
+        <v>0.01027906330868431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2825876666666667</v>
+        <v>0.03867933333333334</v>
       </c>
       <c r="H4">
-        <v>0.847763</v>
+        <v>0.116038</v>
       </c>
       <c r="I4">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="J4">
-        <v>0.4699862069271384</v>
+        <v>0.2723398063265412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N4">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q4">
-        <v>6.674214195372111</v>
+        <v>0.4927567336697778</v>
       </c>
       <c r="R4">
-        <v>60.06792775834901</v>
+        <v>4.434810603028001</v>
       </c>
       <c r="S4">
-        <v>0.04460181092565159</v>
+        <v>0.1279182728358293</v>
       </c>
       <c r="T4">
-        <v>0.04460181092565159</v>
+        <v>0.1279182728358292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.11092</v>
       </c>
       <c r="I5">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="J5">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N5">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O5">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P5">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q5">
-        <v>8.290608349875555</v>
+        <v>0.4939419437155556</v>
       </c>
       <c r="R5">
-        <v>74.61547514887999</v>
+        <v>4.44547749344</v>
       </c>
       <c r="S5">
-        <v>0.0554036977620796</v>
+        <v>0.1282259500559343</v>
       </c>
       <c r="T5">
-        <v>0.05540369776207961</v>
+        <v>0.1282259500559343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.11092</v>
       </c>
       <c r="I6">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="J6">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q6">
         <v>0.03784976155111112</v>
@@ -818,10 +818,10 @@
         <v>0.34064785396</v>
       </c>
       <c r="S6">
-        <v>0.000252938826784167</v>
+        <v>0.009825692464531136</v>
       </c>
       <c r="T6">
-        <v>0.000252938826784167</v>
+        <v>0.009825692464531134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.11092</v>
       </c>
       <c r="I7">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="J7">
-        <v>0.06149226856132928</v>
+        <v>0.2603279211787514</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N7">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O7">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P7">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q7">
-        <v>0.8732438647955556</v>
+        <v>0.4710230863911112</v>
       </c>
       <c r="R7">
-        <v>7.85919478316</v>
+        <v>4.23920777752</v>
       </c>
       <c r="S7">
-        <v>0.005835631972465506</v>
+        <v>0.1222762786582859</v>
       </c>
       <c r="T7">
-        <v>0.005835631972465506</v>
+        <v>0.1222762786582859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.281707</v>
+        <v>0.06637333333333333</v>
       </c>
       <c r="H8">
-        <v>0.845121</v>
+        <v>0.19912</v>
       </c>
       <c r="I8">
-        <v>0.4685215245115322</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="J8">
-        <v>0.4685215245115323</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N8">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O8">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P8">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q8">
-        <v>63.16775350933266</v>
+        <v>0.8867086173155555</v>
       </c>
       <c r="R8">
-        <v>568.5097815839939</v>
+        <v>7.98037755584</v>
       </c>
       <c r="S8">
-        <v>0.4221315223258787</v>
+        <v>0.2301870823578943</v>
       </c>
       <c r="T8">
-        <v>0.4221315223258788</v>
+        <v>0.2301870823578943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.281707</v>
+        <v>0.06637333333333333</v>
       </c>
       <c r="H9">
-        <v>0.845121</v>
+        <v>0.19912</v>
       </c>
       <c r="I9">
-        <v>0.4685215245115322</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="J9">
-        <v>0.4685215245115323</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q9">
-        <v>0.2883846766303333</v>
+        <v>0.06794666895111111</v>
       </c>
       <c r="R9">
-        <v>2.595462089673</v>
+        <v>0.61152002056</v>
       </c>
       <c r="S9">
-        <v>0.001927189994867129</v>
+        <v>0.01763876562871835</v>
       </c>
       <c r="T9">
-        <v>0.001927189994867129</v>
+        <v>0.01763876562871835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.281707</v>
+        <v>0.06637333333333333</v>
       </c>
       <c r="H10">
-        <v>0.845121</v>
+        <v>0.19912</v>
       </c>
       <c r="I10">
-        <v>0.4685215245115322</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="J10">
-        <v>0.4685215245115323</v>
+        <v>0.4673322724947075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N10">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O10">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P10">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q10">
-        <v>6.653414427153666</v>
+        <v>0.8455654251911111</v>
       </c>
       <c r="R10">
-        <v>59.880729844383</v>
+        <v>7.61008882672</v>
       </c>
       <c r="S10">
-        <v>0.04446281219078633</v>
+        <v>0.2195064245080949</v>
       </c>
       <c r="T10">
-        <v>0.04446281219078634</v>
+        <v>0.2195064245080949</v>
       </c>
     </row>
   </sheetData>
